--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01:09:11</t>
+          <t>10:03:41</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lingeshwer</t>
+          <t>Sathish R</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -494,17 +494,21 @@
           <t>2025-09-10</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10:03:41</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>guru</t>
+          <t>daithya</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -522,7 +526,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Maruthu</t>
+          <t>bhuvan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -540,7 +544,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>daithya</t>
+          <t>manibalagan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -558,7 +562,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sathish R</t>
+          <t>Maruthu</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -576,7 +580,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pradeep</t>
+          <t>guru</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -594,7 +598,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>manibalagan</t>
+          <t>pradeep</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -612,7 +616,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rishi</t>
+          <t>vishal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -630,7 +634,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mano</t>
+          <t>Lingeshwer</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,7 +652,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bhuvan</t>
+          <t>Mano</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -666,7 +670,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sanjit</t>
+          <t>Rishi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -684,7 +688,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>vishal</t>
+          <t>RAGUL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -702,7 +706,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RAGUL</t>
+          <t>sanjit</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:58:53</t>
+          <t>13:29:14</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pradeep</t>
+          <t>sanjit</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rishi</t>
+          <t>pradeep</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -522,7 +522,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bhuvan</t>
+          <t>Mano</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RAGUL</t>
+          <t>Sathish R</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>manibalagan</t>
+          <t>daithya</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -576,7 +576,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mano</t>
+          <t>guru</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vishal</t>
+          <t>Maruthu</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Maruthu</t>
+          <t>RAGUL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -630,7 +630,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sathish R</t>
+          <t>Rishi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sanjit</t>
+          <t>vishal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>guru</t>
+          <t>manibalagan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -702,7 +702,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>daithya</t>
+          <t>bhuvan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +494,6 @@
           <t>2025-09-10</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -512,7 +511,6 @@
           <t>2025-09-10</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -530,7 +528,6 @@
           <t>2025-09-10</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -548,7 +545,6 @@
           <t>2025-09-10</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -566,7 +562,6 @@
           <t>2025-09-10</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -584,7 +579,6 @@
           <t>2025-09-10</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -602,7 +596,6 @@
           <t>2025-09-10</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -620,7 +613,6 @@
           <t>2025-09-10</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -638,7 +630,6 @@
           <t>2025-09-10</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -656,7 +647,6 @@
           <t>2025-09-10</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -674,7 +664,6 @@
           <t>2025-09-10</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -692,7 +681,6 @@
           <t>2025-09-10</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr">
         <is>
           <t>Absent</t>
@@ -710,8 +698,753 @@
           <t>2025-09-10</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Saad</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14:07:03</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mano</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RAGUL</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rishi</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Lingeshwer</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>manibalagan</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Maruthu</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>bhuvan</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>guru</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vishal</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>pradeep</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sanjit</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>daithya</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sathish R</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Saad</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>14:07:46</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sanjit</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>bhuvan</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>guru</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Lingeshwer</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>daithya</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>RAGUL</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>vishal</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sathish R</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mano</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Rishi</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>pradeep</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Maruthu</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>manibalagan</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>bhuvan</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>14:10:16</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Saad</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>14:10:16</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>manibalagan</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>sanjit</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mano</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Maruthu</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>RAGUL</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Lingeshwer</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sathish R</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>pradeep</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Rishi</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>vishal</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>daithya</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>guru</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" s="3" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
